--- a/TestData-updated.xlsx
+++ b/TestData-updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jacob\University\IFB398 - Capstone Phase 1\TeacherAllocationSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianvermeulen/TeacherAllocationSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BDA24E-B71C-4141-9F27-858D9721DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02B1AE-DEBE-9A47-B723-9B26B881C2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="1575" windowWidth="21240" windowHeight="18060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allocation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>Code</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Allocated Load</t>
-  </si>
-  <si>
     <t>Academic</t>
   </si>
   <si>
@@ -146,15 +143,9 @@
     <t>Load Error</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mantis Tobogan</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Kom Poota</t>
-  </si>
-  <si>
     <t>2013 breaks LSL</t>
   </si>
   <si>
@@ -183,6 +174,78 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>CAB401</t>
+  </si>
+  <si>
+    <t>CAB402</t>
+  </si>
+  <si>
+    <t>CAB 403</t>
+  </si>
+  <si>
+    <t>CAB 420</t>
+  </si>
+  <si>
+    <t>Programming Paradigms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems Programming </t>
+  </si>
+  <si>
+    <t>Machine Laerning</t>
+  </si>
+  <si>
+    <t>High perform &amp; parallel com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samual Leslie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mary Hendrickson</t>
+  </si>
+  <si>
+    <t>Kierra Martin</t>
+  </si>
+  <si>
+    <t>Tom Wheelock</t>
+  </si>
+  <si>
+    <t>John Kaylen</t>
+  </si>
+  <si>
+    <t>Cara Ayers</t>
+  </si>
+  <si>
+    <t>Elfreda Fowler</t>
+  </si>
+  <si>
+    <t>Eric Russel</t>
+  </si>
+  <si>
+    <t>Jaden Norwood</t>
+  </si>
+  <si>
+    <t>Rachelle Jena</t>
+  </si>
+  <si>
+    <t>Joline Sharp</t>
+  </si>
+  <si>
+    <t>Jerry Barker</t>
+  </si>
+  <si>
+    <t>Yaling Song</t>
+  </si>
+  <si>
+    <t>Rong Yun Tang</t>
+  </si>
+  <si>
+    <t>Heng Long Ho</t>
+  </si>
+  <si>
+    <t>Allocated Staff</t>
   </si>
 </sst>
 </file>
@@ -192,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -249,6 +312,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -316,7 +398,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,7 +460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,6 +475,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Calculation" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -990,27 +1093,29 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="32" width="5.5703125" customWidth="1"/>
-    <col min="33" max="33" width="6.42578125" customWidth="1"/>
-    <col min="34" max="62" width="5.5703125" customWidth="1"/>
-    <col min="63" max="63" width="5.85546875" customWidth="1"/>
-    <col min="64" max="84" width="5.5703125" customWidth="1"/>
-    <col min="91" max="93" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="26" width="5.5" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="5.5" customWidth="1"/>
+    <col min="33" max="33" width="6.5" customWidth="1"/>
+    <col min="34" max="62" width="5.5" customWidth="1"/>
+    <col min="63" max="63" width="5.83203125" customWidth="1"/>
+    <col min="64" max="84" width="5.5" customWidth="1"/>
+    <col min="91" max="93" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="91.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,12 +1155,24 @@
       <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -1119,14 +1236,14 @@
       <c r="CN1" s="2"/>
       <c r="CO1" s="2"/>
     </row>
-    <row r="2" spans="1:93" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2">
-        <f>U6/D19</f>
-        <v>2.0185982796527497</v>
+        <f>AB6/D32</f>
+        <v>1.366467607062068</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1167,12 +1284,24 @@
       <c r="S2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
+      <c r="T2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
@@ -1236,7 +1365,7 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="G3" s="1" t="s">
@@ -1278,12 +1407,24 @@
       <c r="S3" s="9">
         <v>2</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+      <c r="T3" s="9">
+        <v>1</v>
+      </c>
+      <c r="U3" s="9">
+        <v>2</v>
+      </c>
+      <c r="V3" s="9">
+        <v>2</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1</v>
+      </c>
+      <c r="X3" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>2</v>
+      </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
@@ -1347,7 +1488,7 @@
       <c r="CN3" s="9"/>
       <c r="CO3" s="9"/>
     </row>
-    <row r="4" spans="1:93" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1387,12 +1528,24 @@
       <c r="S4" s="11">
         <v>630</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
+      <c r="T4" s="11">
+        <v>190</v>
+      </c>
+      <c r="U4" s="11">
+        <v>220</v>
+      </c>
+      <c r="V4" s="11">
+        <v>340</v>
+      </c>
+      <c r="W4" s="11">
+        <v>210</v>
+      </c>
+      <c r="X4" s="11">
+        <v>360</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>400</v>
+      </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
@@ -1456,24 +1609,24 @@
       <c r="CN4" s="11"/>
       <c r="CO4" s="11"/>
     </row>
-    <row r="5" spans="1:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I5" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>2</v>
       </c>
       <c r="L5" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="13">
         <v>1</v>
@@ -1485,23 +1638,35 @@
         <v>1</v>
       </c>
       <c r="P5" s="13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" s="13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R5" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="13">
-        <v>1</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13">
+        <v>1</v>
+      </c>
+      <c r="W5" s="13">
+        <v>1</v>
+      </c>
+      <c r="X5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>1</v>
+      </c>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
@@ -1565,44 +1730,44 @@
       <c r="CN5" s="13"/>
       <c r="CO5" s="13"/>
     </row>
-    <row r="6" spans="1:93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="16">
-        <f t="shared" ref="H6:S6" si="0">MAX(LOG10(H4/7),$C$6)*H5</f>
-        <v>1.8450980400142569</v>
+        <f>MAX(LOG10(H4/7),$C$6)*H5</f>
+        <v>2.7676470600213854</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" si="0"/>
-        <v>1.9402317949965102</v>
+        <f t="shared" ref="H6:S6" si="0">MAX(LOG10(I4/7),$C$6)*I5</f>
+        <v>3.8804635899930204</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="0"/>
-        <v>1.1641390769979061</v>
+        <v>3.8804635899930204</v>
       </c>
       <c r="K6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9619535253731391</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="0"/>
-        <v>1.9874108726919795</v>
+        <v>3.9748217453839589</v>
       </c>
       <c r="M6" s="16">
         <f t="shared" si="0"/>
         <v>1.4101744650890493</v>
       </c>
       <c r="N6" s="16">
-        <f t="shared" si="0"/>
-        <v>0.42693598216088102</v>
+        <f>MAX(LOG10(N4/7),$C$6)*N5</f>
+        <v>0.5</v>
       </c>
       <c r="O6" s="16">
         <f t="shared" si="0"/>
@@ -1610,34 +1775,51 @@
       </c>
       <c r="P6" s="16">
         <f t="shared" si="0"/>
-        <v>1.895264649479987</v>
+        <v>2.8428969742199803</v>
       </c>
       <c r="Q6" s="16">
         <f t="shared" si="0"/>
-        <v>1.853871964321762</v>
+        <v>2.7808079464826432</v>
       </c>
       <c r="R6" s="16">
         <f t="shared" si="0"/>
-        <v>1.9330532103693867</v>
+        <v>3.8661064207387734</v>
       </c>
       <c r="S6" s="16">
-        <f t="shared" si="0"/>
-        <v>1.954242509439325</v>
-      </c>
-      <c r="T6" t="s">
+        <f>MAX(LOG10(S4/7),$C$6)*S5</f>
+        <v>3.90848501887865</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" ref="T6:Y6" si="1">MAX(LOG10(T4/7),$C$6)*T5</f>
+        <v>1.4336555609385722</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="1"/>
+        <v>1.4973246408079495</v>
+      </c>
+      <c r="V6" s="16">
+        <f t="shared" si="1"/>
+        <v>1.6863808770279982</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" si="1"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="1"/>
+        <v>1.7112044607530303</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="1"/>
+        <v>1.7569619513137056</v>
+      </c>
+      <c r="AA6" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="18">
-        <f>SUM(H6:S6)</f>
-        <v>18.167384516874748</v>
-      </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
+      <c r="AB6" s="18">
+        <f>SUM(H6:Y6)</f>
+        <v>45.093431033048248</v>
+      </c>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
@@ -1698,67 +1880,84 @@
       <c r="CN6" s="16"/>
       <c r="CO6" s="16"/>
     </row>
-    <row r="7" spans="1:93" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ref="H7:S7" si="1">SUM(H9:H49)</f>
+        <f t="shared" ref="H7:Y7" si="2">SUM(H9:H49)</f>
         <v>1</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="P7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(Q9:Q49)</f>
+        <v>2</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="S7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+        <f>SUM(S9:S49)</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W7" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X7" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
@@ -1819,80 +2018,98 @@
       <c r="CN7" s="9"/>
       <c r="CO7" s="9"/>
     </row>
-    <row r="8" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="20">
-        <f t="shared" ref="H8:S8" si="2">IF(H5&lt;&gt;0,H7-1,H7)</f>
+        <f t="shared" ref="H8:S8" si="3">IF(H5&lt;&gt;0,H7-1,H7)</f>
         <v>0</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="20">
+        <f>IF(K5&lt;&gt;0,K7-1,K7)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="20">
+        <f>IF(O5&lt;&gt;0,O7-1,O7)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="20">
+        <f>IF(P5&lt;&gt;0,P7-1,P7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="20">
+        <f>IF(S5&lt;&gt;0,S7-1,S7)</f>
+        <v>2</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" ref="T8:Y8" si="4">IF(T5&lt;&gt;0,T7-1,T7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="20">
-        <f t="shared" si="2"/>
+      <c r="U8" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="20">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
+      <c r="V8" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
@@ -1956,698 +2173,1348 @@
       <c r="CN8" s="20"/>
       <c r="CO8" s="20"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22">
+        <f>D9*$C$2</f>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" ref="F9:F33" si="5">SUMPRODUCT(H$6:CF$6,H9:CF9)</f>
+        <v>4.2649717008293351</v>
+      </c>
+      <c r="G9" s="22">
+        <f>F9-E9</f>
+        <v>1.532036486705199</v>
+      </c>
+      <c r="H9" s="39">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40">
+        <v>1</v>
+      </c>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="43"/>
+      <c r="CF9" s="23"/>
+    </row>
+    <row r="10" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <f>D10*$C$2</f>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="5"/>
+        <v>3.8804635899930204</v>
+      </c>
+      <c r="G10" s="22">
+        <f>F10-E10</f>
+        <v>2.5139959829309522</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40">
+        <v>1</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22">
-        <f t="shared" ref="E9:E17" si="3">D9*$C$2</f>
-        <v>2.0185982796527497</v>
-      </c>
-      <c r="F9" s="22">
-        <f t="shared" ref="F9:F17" si="4">SUMPRODUCT(H$6:CF$6,H9:CF9)</f>
-        <v>1.8450980400142569</v>
-      </c>
-      <c r="G9" s="22">
-        <f t="shared" ref="G9:G17" si="5">F9-E9</f>
-        <v>-0.17350023963849281</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1"/>
-      <c r="CF9" s="24"/>
-    </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22">
-        <f t="shared" si="3"/>
-        <v>2.0185982796527497</v>
-      </c>
-      <c r="F10" s="22">
-        <f t="shared" si="4"/>
-        <v>1.9402317949965102</v>
-      </c>
-      <c r="G10" s="22">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" ref="E9:E33" si="6">D11*$C$2</f>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F11" s="22">
         <f t="shared" si="5"/>
-        <v>-7.8366484656239521E-2</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="1"/>
-    </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22">
-        <f t="shared" si="3"/>
-        <v>2.0185982796527497</v>
-      </c>
-      <c r="F11" s="22">
-        <f t="shared" si="4"/>
-        <v>1.1641390769979061</v>
+        <v>3.8804635899930204</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" si="5"/>
-        <v>-0.85445920265484365</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="G9:G17" si="7">F11-E11</f>
+        <v>2.5139959829309522</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40">
+        <v>1</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
       <c r="AE11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
-      <c r="CF11" s="24"/>
-    </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CF11" s="23"/>
+    </row>
+    <row r="12" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="22">
-        <f t="shared" si="3"/>
-        <v>2.0185982796527497</v>
+        <f>D12*$C$2</f>
+        <v>2.7329352141241361</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" si="4"/>
-        <v>1.9874108726919795</v>
+        <f>SUMPRODUCT(H$6:CF$6,H12:CF12)</f>
+        <v>11.817238860750118</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" si="5"/>
-        <v>-3.118740696077027E-2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>9.0843036466259814</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40">
+        <v>1</v>
+      </c>
+      <c r="K12" s="40">
+        <v>1</v>
+      </c>
+      <c r="L12" s="40">
+        <v>1</v>
+      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
-      <c r="CF12" s="24"/>
-    </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CF12" s="23"/>
+    </row>
+    <row r="13" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="23"/>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27">
-        <f t="shared" si="3"/>
-        <v>2.0185982796527497</v>
-      </c>
-      <c r="F13" s="27">
-        <f t="shared" si="4"/>
-        <v>1.8371104472499304</v>
-      </c>
-      <c r="G13" s="27">
+        <v>35</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="6"/>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F13" s="26">
         <f t="shared" si="5"/>
-        <v>-0.18148783240281929</v>
-      </c>
-      <c r="M13" s="24">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BK13" s="24"/>
-      <c r="BP13" s="24"/>
-      <c r="BT13" s="24"/>
-      <c r="BU13" s="24"/>
-      <c r="BV13" s="28"/>
-      <c r="BW13" s="24"/>
-      <c r="BX13" s="24"/>
-      <c r="BY13" s="24"/>
-      <c r="BZ13" s="24"/>
-      <c r="CA13" s="24"/>
-      <c r="CB13" s="24"/>
-      <c r="CC13" s="29"/>
-      <c r="CD13" s="24"/>
-      <c r="CE13" s="29"/>
-      <c r="CF13" s="24"/>
-      <c r="CM13" s="24"/>
-    </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+        <v>1.9101744650890493</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="7"/>
+        <v>-0.82276074903508678</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41">
+        <v>1</v>
+      </c>
+      <c r="N13" s="40">
+        <v>1</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BK13" s="23"/>
+      <c r="BP13" s="23"/>
+      <c r="BT13" s="23"/>
+      <c r="BU13" s="23"/>
+      <c r="BV13" s="27"/>
+      <c r="BW13" s="23"/>
+      <c r="BX13" s="23"/>
+      <c r="BY13" s="23"/>
+      <c r="BZ13" s="23"/>
+      <c r="CA13" s="23"/>
+      <c r="CB13" s="23"/>
+      <c r="CC13" s="28"/>
+      <c r="CD13" s="23"/>
+      <c r="CE13" s="28"/>
+      <c r="CF13" s="23"/>
+      <c r="CM13" s="23"/>
+    </row>
+    <row r="14" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="22">
-        <f t="shared" si="3"/>
-        <v>2.0185982796527497</v>
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
       </c>
       <c r="F14" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7569619513137056</v>
       </c>
       <c r="G14" s="22">
-        <f t="shared" si="5"/>
-        <v>-0.26163632833904416</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="BP14" s="26"/>
-      <c r="CF14" s="24"/>
-    </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0.39049434425163754</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40">
+        <v>1</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="CF14" s="23"/>
+    </row>
+    <row r="15" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="22">
-        <f t="shared" si="3"/>
-        <v>2.0185982796527497</v>
+        <f>D15*$C$2</f>
+        <v>2.7329352141241361</v>
       </c>
       <c r="F15" s="22">
-        <f t="shared" si="4"/>
-        <v>1.895264649479987</v>
+        <f>SUMPRODUCT(H$6:CF$6,H15:CF15)</f>
+        <v>6.7513819930986303</v>
       </c>
       <c r="G15" s="22">
-        <f t="shared" si="5"/>
-        <v>-0.12333363017276278</v>
-      </c>
-      <c r="P15" s="30">
-        <v>1</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>4.0184467789744946</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40">
+        <v>1</v>
+      </c>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
-      <c r="CM15" s="24"/>
-    </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CM15" s="23"/>
+    </row>
+    <row r="16" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="E16" s="27">
-        <f t="shared" si="3"/>
-        <v>2.0185982796527497</v>
-      </c>
-      <c r="F16" s="27">
-        <f t="shared" si="4"/>
-        <v>1.853871964321762</v>
-      </c>
-      <c r="G16" s="27">
+        <v>35</v>
+      </c>
+      <c r="D16" s="23">
+        <v>2</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="6"/>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F16" s="26">
         <f t="shared" si="5"/>
-        <v>-0.16472631533098769</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="T16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="BF16" s="24"/>
-      <c r="BG16" s="24"/>
-      <c r="BK16" s="24"/>
-      <c r="BP16" s="32"/>
-      <c r="BT16" s="24"/>
-      <c r="BU16" s="24"/>
-      <c r="BV16" s="24"/>
-      <c r="BW16" s="24"/>
-      <c r="BX16" s="29"/>
-      <c r="BY16" s="24"/>
-      <c r="BZ16" s="29"/>
-      <c r="CA16" s="24"/>
-      <c r="CB16" s="24"/>
-      <c r="CC16" s="24"/>
-      <c r="CD16" s="24"/>
-      <c r="CE16" s="24"/>
-      <c r="CF16" s="24"/>
-    </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+        <v>4.2144635074212156</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" si="7"/>
+        <v>1.4815282932970795</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40">
+        <v>1</v>
+      </c>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41">
+        <v>1</v>
+      </c>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BK16" s="23"/>
+      <c r="BP16" s="31"/>
+      <c r="BT16" s="23"/>
+      <c r="BU16" s="23"/>
+      <c r="BV16" s="23"/>
+      <c r="BW16" s="23"/>
+      <c r="BX16" s="28"/>
+      <c r="BY16" s="23"/>
+      <c r="BZ16" s="28"/>
+      <c r="CA16" s="23"/>
+      <c r="CB16" s="23"/>
+      <c r="CC16" s="23"/>
+      <c r="CD16" s="23"/>
+      <c r="CE16" s="23"/>
+      <c r="CF16" s="23"/>
+    </row>
+    <row r="17" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="22">
-        <f t="shared" si="3"/>
-        <v>2.0185982796527497</v>
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
       </c>
       <c r="F17" s="22">
-        <f t="shared" si="4"/>
-        <v>1.9330532103693867</v>
+        <f t="shared" si="5"/>
+        <v>3.8661064207387734</v>
       </c>
       <c r="G17" s="22">
+        <f>F17-E17</f>
+        <v>2.4996388136767056</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40">
+        <v>1</v>
+      </c>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="AA17" s="1"/>
+      <c r="AM17" s="29"/>
+      <c r="AQ17" s="25"/>
+      <c r="AW17" s="23"/>
+      <c r="BK17" s="1"/>
+      <c r="CF17" s="23"/>
+      <c r="CM17" s="32"/>
+    </row>
+    <row r="18" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F18" s="22">
         <f t="shared" si="5"/>
-        <v>-8.5545069283363029E-2</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1"/>
-      <c r="AM17" s="30"/>
-      <c r="AQ17" s="26"/>
-      <c r="AW17" s="24"/>
-      <c r="BK17" s="1"/>
-      <c r="CF17" s="24"/>
-      <c r="CM17" s="33"/>
-    </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="CF18" s="24"/>
-    </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
-        <f ca="1">TEXT(COUNTA(A9:A49),"0")&amp;" bodies"</f>
-        <v>9 bodies</v>
+        <v>1.6863808770279982</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" ref="G18:G33" si="8">F18-E18</f>
+        <v>0.31991326996593017</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40">
+        <v>1</v>
+      </c>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="40"/>
+      <c r="CF18" s="23"/>
+    </row>
+    <row r="19" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1">
-        <f>SUM(D9:D17)</f>
-        <v>9</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="5"/>
+        <v>3.90848501887865</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="8"/>
+        <v>2.5420174118165821</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40">
+        <v>1</v>
+      </c>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="26"/>
-      <c r="CF19" s="24"/>
-    </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="M21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-    </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="M22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="BF22" s="24"/>
-      <c r="BG22" s="24"/>
-      <c r="BK22" s="24"/>
-      <c r="BP22" s="24"/>
-      <c r="BT22" s="24"/>
-      <c r="BU22" s="24"/>
-      <c r="BV22" s="24"/>
-      <c r="BW22" s="24"/>
-      <c r="BX22" s="24"/>
-      <c r="BY22" s="24"/>
-      <c r="BZ22" s="24"/>
-      <c r="CA22" s="24"/>
-      <c r="CB22" s="24"/>
-      <c r="CC22" s="24"/>
-      <c r="CD22" s="24"/>
-      <c r="CE22" s="24"/>
-      <c r="CF22" s="24"/>
-    </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="AI19" s="25"/>
+      <c r="CF19" s="23"/>
+    </row>
+    <row r="20" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="5"/>
+        <v>1.4101744650890493</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="8"/>
+        <v>4.3706858026981266E-2</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40">
+        <v>1</v>
+      </c>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+    </row>
+    <row r="21" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="6"/>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="5"/>
+        <v>7.0687893054657138</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="8"/>
+        <v>4.3358540913415773</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40">
+        <v>1</v>
+      </c>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40">
+        <v>1</v>
+      </c>
+      <c r="X21" s="40">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="40"/>
+      <c r="BF21" s="25"/>
+      <c r="BG21" s="25"/>
+    </row>
+    <row r="22" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="8"/>
+        <v>-0.86646760706206805</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="40">
+        <v>1</v>
+      </c>
+      <c r="O22" s="41"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BK22" s="23"/>
+      <c r="BP22" s="23"/>
+      <c r="BT22" s="23"/>
+      <c r="BU22" s="23"/>
+      <c r="BV22" s="23"/>
+      <c r="BW22" s="23"/>
+      <c r="BX22" s="23"/>
+      <c r="BY22" s="23"/>
+      <c r="BZ22" s="23"/>
+      <c r="CA22" s="23"/>
+      <c r="CB22" s="23"/>
+      <c r="CC22" s="23"/>
+      <c r="CD22" s="23"/>
+      <c r="CE22" s="23"/>
+      <c r="CF22" s="23"/>
+    </row>
+    <row r="23" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="22">
+        <f>D23*$C$2</f>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="5"/>
+        <v>3.2340832060333682</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="8"/>
+        <v>0.50114799190923209</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40">
+        <v>1</v>
+      </c>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40">
+        <v>1</v>
+      </c>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
-      <c r="AZ23" s="26"/>
+      <c r="AZ23" s="25"/>
       <c r="BA23" s="1"/>
-      <c r="CF23" s="24"/>
-    </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="CF24" s="24"/>
-    </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="CF25" s="24"/>
-      <c r="CM25" s="24"/>
-    </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="M26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="BF26" s="24"/>
-      <c r="BG26" s="24"/>
-      <c r="BK26" s="24"/>
-      <c r="BP26" s="24"/>
-      <c r="BT26" s="24"/>
-      <c r="BU26" s="24"/>
-      <c r="BV26" s="24"/>
-      <c r="BW26" s="24"/>
-      <c r="BX26" s="24"/>
-      <c r="BY26" s="24"/>
-      <c r="BZ26" s="24"/>
-      <c r="CA26" s="24"/>
-      <c r="CB26" s="24"/>
-      <c r="CC26" s="24"/>
-      <c r="CD26" s="24"/>
-      <c r="CE26" s="24"/>
-      <c r="CF26" s="24"/>
-      <c r="CM26" s="24"/>
-    </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="T27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BT27" s="30"/>
-      <c r="BU27" s="30"/>
-      <c r="BV27" s="30"/>
-      <c r="BW27" s="30"/>
-      <c r="CM27" s="34"/>
-    </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="T28" s="26"/>
-      <c r="AL28" s="30"/>
-      <c r="BF28" s="30"/>
-      <c r="BG28" s="30"/>
-    </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="AE29" s="30"/>
-      <c r="AG29" s="24"/>
-      <c r="BS29" s="26"/>
-      <c r="CF29" s="24"/>
-      <c r="CM29" s="24"/>
-    </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="BV30" s="30"/>
+      <c r="CF23" s="23"/>
+    </row>
+    <row r="24" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="5"/>
+        <v>2.8428969742199803</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="8"/>
+        <v>1.4764293671579123</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="CF24" s="23"/>
+    </row>
+    <row r="25" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="6"/>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F25" s="22">
+        <f>SUMPRODUCT(H$6:CF$6,H25:CF25)</f>
+        <v>6.6892929653612931</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="8"/>
+        <v>3.956357751237157</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40">
+        <v>1</v>
+      </c>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40">
+        <v>1</v>
+      </c>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="CF25" s="23"/>
+      <c r="CM25" s="23"/>
+    </row>
+    <row r="26" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="6"/>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="5"/>
+        <v>3.4681664120667359</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="8"/>
+        <v>0.73523119794259983</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="40">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BK26" s="23"/>
+      <c r="BP26" s="23"/>
+      <c r="BT26" s="23"/>
+      <c r="BU26" s="23"/>
+      <c r="BV26" s="23"/>
+      <c r="BW26" s="23"/>
+      <c r="BX26" s="23"/>
+      <c r="BY26" s="23"/>
+      <c r="BZ26" s="23"/>
+      <c r="CA26" s="23"/>
+      <c r="CB26" s="23"/>
+      <c r="CC26" s="23"/>
+      <c r="CD26" s="23"/>
+      <c r="CE26" s="23"/>
+      <c r="CF26" s="23"/>
+      <c r="CM26" s="23"/>
+    </row>
+    <row r="27" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="5"/>
+        <v>3.9748217453839589</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="8"/>
+        <v>2.6083541383218911</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40">
+        <v>1</v>
+      </c>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="BF27" s="25"/>
+      <c r="BG27" s="25"/>
+      <c r="BT27" s="29"/>
+      <c r="BU27" s="29"/>
+      <c r="BV27" s="29"/>
+      <c r="BW27" s="29"/>
+      <c r="CM27" s="33"/>
+    </row>
+    <row r="28" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="6"/>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="5"/>
+        <v>7.8424171153661595</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="8"/>
+        <v>5.1094819012420238</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40">
+        <v>1</v>
+      </c>
+      <c r="K28" s="40">
+        <v>1</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="AL28" s="29"/>
+      <c r="BF28" s="29"/>
+      <c r="BG28" s="29"/>
+    </row>
+    <row r="29" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="6"/>
+        <v>2.7329352141241361</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="5"/>
+        <v>3.443342828341704</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="8"/>
+        <v>0.71040761421756793</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40">
+        <v>1</v>
+      </c>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40">
+        <v>1</v>
+      </c>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="AE29" s="29"/>
+      <c r="AG29" s="23"/>
+      <c r="BS29" s="25"/>
+      <c r="CF29" s="23"/>
+      <c r="CM29" s="23"/>
+    </row>
+    <row r="30" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="6"/>
+        <v>1.366467607062068</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="5"/>
+        <v>3.8661064207387734</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="8"/>
+        <v>2.4996388136767056</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40">
+        <v>1</v>
+      </c>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="BV30" s="29"/>
       <c r="CA30" s="1"/>
       <c r="CD30" s="1"/>
-      <c r="CF30" s="24"/>
-    </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="CF30" s="23"/>
+    </row>
+    <row r="31" spans="1:91" x14ac:dyDescent="0.2">
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="S31" s="30"/>
-      <c r="AE31" s="24"/>
-      <c r="CM31" s="24"/>
-    </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="S31" s="29"/>
+      <c r="AE31" s="23"/>
+      <c r="CM31" s="23"/>
+    </row>
+    <row r="32" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="str">
+        <f>TEXT(COUNTA(A9:A49),"0")&amp;" bodies"</f>
+        <v>22 bodies</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <f>SUM(D9:D30)</f>
+        <v>33</v>
+      </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="26"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="1"/>
-      <c r="CF32" s="24"/>
-      <c r="CM32" s="24"/>
-    </row>
-    <row r="33" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="CF32" s="23"/>
+      <c r="CM32" s="23"/>
+    </row>
+    <row r="33" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="AZ33" s="30"/>
+      <c r="AZ33" s="29"/>
       <c r="BI33" s="1"/>
       <c r="BN33" s="1"/>
-      <c r="CF33" s="24"/>
-      <c r="CM33" s="24"/>
-    </row>
-    <row r="34" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="CF33" s="23"/>
+      <c r="CM33" s="23"/>
+    </row>
+    <row r="34" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="S34" s="1"/>
       <c r="AW34" s="1"/>
-      <c r="CM34" s="24"/>
-    </row>
-    <row r="35" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="CM34" s="23"/>
+    </row>
+    <row r="35" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="BT35" s="26"/>
-      <c r="BU35" s="26"/>
-      <c r="BV35" s="30"/>
-      <c r="BW35" s="26"/>
-    </row>
-    <row r="36" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="BT35" s="25"/>
+      <c r="BU35" s="25"/>
+      <c r="BV35" s="29"/>
+      <c r="BW35" s="25"/>
+    </row>
+    <row r="36" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="AL36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
+      <c r="AL36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
       <c r="BJ36" s="1"/>
-      <c r="CF36" s="24"/>
-    </row>
-    <row r="37" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="CF36" s="23"/>
+    </row>
+    <row r="37" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="J37" s="1"/>
-      <c r="CF37" s="24"/>
-    </row>
-    <row r="38" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="CF37" s="23"/>
+    </row>
+    <row r="38" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="Z38" s="1"/>
-      <c r="AE38" s="24"/>
+      <c r="AE38" s="23"/>
       <c r="BO38" s="1"/>
-      <c r="CM38" s="24"/>
-    </row>
-    <row r="39" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
+      <c r="CM38" s="23"/>
+    </row>
+    <row r="39" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B39" s="38"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="U39" s="1"/>
-      <c r="AE39" s="35"/>
-      <c r="AP39" s="30"/>
-      <c r="AQ39" s="26"/>
-      <c r="CF39" s="24"/>
-    </row>
-    <row r="40" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="AE39" s="34"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="25"/>
+      <c r="CF39" s="23"/>
+    </row>
+    <row r="40" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="O40" s="1"/>
-      <c r="AB40" s="26"/>
-      <c r="AE40" s="24"/>
-      <c r="AM40" s="26"/>
-      <c r="CF40" s="24"/>
-    </row>
-    <row r="41" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AE40" s="23"/>
+      <c r="AM40" s="25"/>
+      <c r="CF40" s="23"/>
+    </row>
+    <row r="41" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B41" s="38"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
       <c r="BM41" s="1"/>
-      <c r="CM41" s="24"/>
-    </row>
-    <row r="42" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="CM41" s="23"/>
+    </row>
+    <row r="42" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="P42" s="36"/>
+      <c r="P42" s="35"/>
       <c r="AV42" s="1"/>
-      <c r="AW42" s="37"/>
-    </row>
-    <row r="43" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="AW42" s="36"/>
+    </row>
+    <row r="43" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="L43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="V44" s="26"/>
+      <c r="V44" s="25"/>
       <c r="BL44" s="1"/>
     </row>
-    <row r="45" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="D45" s="24"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+    <row r="45" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="N45" s="1"/>
-      <c r="AJ45" s="30"/>
-      <c r="AK45" s="30"/>
-      <c r="CF45" s="24"/>
-    </row>
-    <row r="46" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="30"/>
-      <c r="M46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
-      <c r="AL46" s="24"/>
-      <c r="AM46" s="24"/>
-      <c r="BF46" s="24"/>
-      <c r="BG46" s="24"/>
-      <c r="BK46" s="24"/>
-      <c r="BP46" s="24"/>
-      <c r="BT46" s="24"/>
-      <c r="BU46" s="24"/>
-      <c r="BV46" s="24"/>
-      <c r="BW46" s="24"/>
-      <c r="BX46" s="24"/>
-      <c r="BY46" s="29"/>
-      <c r="BZ46" s="24"/>
-      <c r="CA46" s="24"/>
-      <c r="CB46" s="24"/>
-      <c r="CC46" s="24"/>
-      <c r="CD46" s="24"/>
-      <c r="CE46" s="24"/>
-      <c r="CF46" s="24"/>
-    </row>
-    <row r="47" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="29"/>
+      <c r="CF45" s="23"/>
+    </row>
+    <row r="46" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="29"/>
+      <c r="M46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="BF46" s="23"/>
+      <c r="BG46" s="23"/>
+      <c r="BK46" s="23"/>
+      <c r="BP46" s="23"/>
+      <c r="BT46" s="23"/>
+      <c r="BU46" s="23"/>
+      <c r="BV46" s="23"/>
+      <c r="BW46" s="23"/>
+      <c r="BX46" s="23"/>
+      <c r="BY46" s="28"/>
+      <c r="BZ46" s="23"/>
+      <c r="CA46" s="23"/>
+      <c r="CB46" s="23"/>
+      <c r="CC46" s="23"/>
+      <c r="CD46" s="23"/>
+      <c r="CE46" s="23"/>
+      <c r="CF46" s="23"/>
+    </row>
+    <row r="47" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
-      <c r="BU47" s="30"/>
+      <c r="BU47" s="29"/>
       <c r="CB47" s="1"/>
-      <c r="CF47" s="29"/>
-    </row>
-    <row r="48" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="CF47" s="28"/>
+    </row>
+    <row r="48" spans="2:91" x14ac:dyDescent="0.2">
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
-      <c r="M48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="BF48" s="26"/>
-      <c r="BG48" s="26"/>
-      <c r="CF48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
+      <c r="M48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="BF48" s="25"/>
+      <c r="BG48" s="25"/>
+      <c r="CF48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="37"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AB8:AC8 AF8 BG8:BW8 CA8:CD8 Y8 AH8:BD8 CM8:CN8 H8:T8">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="AB8:AC8 AF8 BG8:BW8 CA8:CD8 AH8:BD8 CM8:CN8 H8:Y8">
     <cfRule type="expression" dxfId="23" priority="2">
       <formula>H8&lt;0</formula>
     </cfRule>
@@ -2655,7 +3522,7 @@
       <formula>H8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G18 G49 G20 G22:G39">
+  <conditionalFormatting sqref="G9:G39 G49">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="-1.5"/>
@@ -2681,22 +3548,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="8">
       <formula>CD8&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8:V8">
-    <cfRule type="expression" dxfId="17" priority="9">
-      <formula>U8&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
-      <formula>U8&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W8:X8">
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>W8&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>W8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA8">
@@ -2739,18 +3590,6 @@
       <formula>BF8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="-1.5"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1.5"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
     <cfRule type="expression" dxfId="3" priority="24">
       <formula>AG8&lt;0</formula>
@@ -2769,18 +3608,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
     <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="num" val="-1.5"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1.5"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="-1.5"/>
         <cfvo type="num" val="0"/>
@@ -2900,7 +3727,7 @@
       <selection activeCell="A3" activeCellId="1" sqref="X7:X8 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2915,7 +3742,7 @@
       <selection activeCellId="1" sqref="X7:X8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
